--- a/fhir/core/2.2.0/StructureDefinition-dk-core-cpr-identifier.xlsx
+++ b/fhir/core/2.2.0/StructureDefinition-dk-core-cpr-identifier.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-30T22:07:34+02:00</t>
+    <t>2023-05-04T21:35:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -459,7 +459,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cpr:Requirement of danish civil registration numbers {value.matches('^(?:(?:31(?:0[13578]|1[02])|(?:30|29)(?:0[13-9]|1[0-2])|(?:0[1-9]|1[0-9]|2[0-8])(?:0[1-9]|1[0-2]))[0-9]{2}[0-9]|290200[4-9]|2902(?:(?!00)[02468][048]|[13579][26])[0-3])[0-9]{3}$')}</t>
+cpr:Requirement of danish civil registration numbers {value.matches('^((((0[1-9]|1[0-9]|2[0-9]|3[0-1])(01|03|05|07|08|10|12))|((0[1-9]|1[0-9]|2[0-9]|30)(04|06|09|11))|((0[1-9]|1[0-9]|2[0-9])(02)))[0-9]{6})$')}</t>
   </si>
   <si>
     <t>CX.1 / EI.1</t>

--- a/fhir/core/2.2.0/StructureDefinition-dk-core-cpr-identifier.xlsx
+++ b/fhir/core/2.2.0/StructureDefinition-dk-core-cpr-identifier.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T21:35:52+02:00</t>
+    <t>2023-05-05T01:37:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
